--- a/BirthdayFile4.xlsx
+++ b/BirthdayFile4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yokvachuk\Desktop\Files\Enternainwork\Arbeit\41. Birthday_reminder\Birthday_reminder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Birthday_Application\Birthday_reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C93DD3-DAF5-489A-AFBD-46DE7382607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8955DB7C-94CD-4B26-932F-CF03E15F6BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-15720" windowWidth="13440" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birthdays" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,16 +412,16 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>15665</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -437,7 +437,7 @@
         <v>22497</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -445,7 +445,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -453,7 +453,7 @@
         <v>16967</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -461,7 +461,7 @@
         <v>27251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -469,7 +469,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -477,7 +477,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -485,7 +485,7 @@
         <v>31836</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -493,7 +493,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -501,7 +501,7 @@
         <v>20151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -509,7 +509,7 @@
         <v>20437</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -517,7 +517,7 @@
         <v>29738</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -525,7 +525,7 @@
         <v>29606</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -533,7 +533,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -541,7 +541,7 @@
         <v>32197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -549,7 +549,7 @@
         <v>28545</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -557,7 +557,7 @@
         <v>15036</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -565,7 +565,7 @@
         <v>34025</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>

--- a/BirthdayFile4.xlsx
+++ b/BirthdayFile4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Birthday_Application\Birthday_reminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8955DB7C-94CD-4B26-932F-CF03E15F6BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122D6D5-2BE0-4F18-A7CB-7210698C8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,73 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Joseph Biden</t>
+    <t>Voinalovych Andrii</t>
   </si>
   <si>
-    <t>Barack Obama</t>
+    <t>Some Guy</t>
   </si>
   <si>
-    <t>George Washington</t>
+    <t>voinn.andrey@gmail.com</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Herbert Hoover</t>
-  </si>
-  <si>
-    <t>John Adams</t>
-  </si>
-  <si>
-    <t>Thomas Jeffeston</t>
-  </si>
-  <si>
-    <t>Martin Buren</t>
-  </si>
-  <si>
-    <t>William Harrison</t>
-  </si>
-  <si>
-    <t>Franklin Pierce</t>
-  </si>
-  <si>
-    <t>James Buchanan</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>Andrew Johnson</t>
-  </si>
-  <si>
-    <t>Geral Ford</t>
-  </si>
-  <si>
-    <t>George Bush</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Jimmey Carter</t>
-  </si>
-  <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
+    <t>avoinalovych@kpmg.ua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,14 +86,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,171 +375,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>15665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15438</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>22497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+        <v>15438</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>16967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>27251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>31836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>23800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>29738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>29606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>32197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>28545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>34025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>29277</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{E254C528-1FE4-48EC-A383-FC069A0B3852}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{7447F60F-87CD-4F80-BDF3-B4DD09833019}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>